--- a/Documentos/Tabla LALR(1).xlsx
+++ b/Documentos/Tabla LALR(1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\Compiladores\Lab\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\Compiladores\Lab\2\Lab2-Compis\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58FCA568-36C8-4511-8DB6-9BB756A4C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC9B45F-0695-4D69-91FE-18263B7F6710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3288" windowWidth="17280" windowHeight="8976" xr2:uid="{E1573660-8AD1-4293-9685-5B14E5EA1AC9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1573660-8AD1-4293-9685-5B14E5EA1AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="LALR(1)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>ACTION</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>19-26</t>
+  </si>
+  <si>
+    <t>10-23</t>
   </si>
 </sst>
 </file>
@@ -375,11 +378,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,80 +455,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,6 +540,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>681990</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>651472</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>75311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0F7E2E-C420-4F56-A2CB-35401219E7F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3053715" y="3449956"/>
+          <a:ext cx="11037532" cy="7512430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -846,442 +890,450 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25925666-87DC-479E-9BEE-A5E6DC362380}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="22" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5">
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="27">
-        <v>45200</v>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="29" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="19" t="s">
         <v>33</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="6" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="21" t="s">
         <v>33</v>
       </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="1"/>
     </row>
   </sheetData>
